--- a/Data/Pages/dlgBaseInsurance_pagPriceOption.xlsx
+++ b/Data/Pages/dlgBaseInsurance_pagPriceOption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\PycharmProjects\OnTop\Data\Pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A33FCB-E026-4527-923C-5D44CD5A0ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739DBA5C-FAC9-445A-95E1-4F54E540141D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2016" windowWidth="33276" windowHeight="14664" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="34512" windowHeight="14352" xr2:uid="{AE079285-A10A-4E50-89E0-1FC0BD4174C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Check defaults</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>*css=label &gt;&gt; css=[value=Ultimate]</t>
+  </si>
+  <si>
+    <t>Select Silver</t>
+  </si>
+  <si>
+    <t>Select Gold</t>
+  </si>
+  <si>
+    <t>Select Platinum</t>
+  </si>
+  <si>
+    <t>Select Ultimate</t>
   </si>
 </sst>
 </file>
@@ -192,13 +204,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>79186</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1638300</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>44677</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -532,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82737E07-8287-4E6B-9130-6C87B574EFB8}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+      <selection activeCell="A5" sqref="A5:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,45 +658,77 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="J8" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" t="s">
         <v>18</v>
       </c>
     </row>
